--- a/CardFormatter/Data/Infamous.18/Cards.Datafile.tmp.xlsx
+++ b/CardFormatter/Data/Infamous.18/Cards.Datafile.tmp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mike\CardGenerator\CardFormatter\Data\Infamous.18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE00CB71-43A2-41AE-8AFF-B15042220846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696B5996-C2EB-4DD9-8567-3076E79AC3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fronts" sheetId="5" r:id="rId1"/>
@@ -292,9 +292,6 @@
     <t>the Iron Midas</t>
   </si>
   <si>
-    <t>You may treat any material as metal.</t>
-  </si>
-  <si>
     <t>Your gadgets require 1 fewer materials to finish.</t>
   </si>
   <si>
@@ -316,9 +313,6 @@
     <t>Take {n} cards from the morgue.</t>
   </si>
   <si>
-    <t>Draw cards equal to the number of Repairman minions you have.</t>
-  </si>
-  <si>
     <t>top</t>
   </si>
   <si>
@@ -337,9 +331,6 @@
     <t>Your finished gadgets may hold +{n} parts each.</t>
   </si>
   <si>
-    <t>Discard a part from a finished gadget to gain a Repairman minion.</t>
-  </si>
-  <si>
     <t>Add 5 parts to finished gadgets you own.</t>
   </si>
   <si>
@@ -653,6 +644,15 @@
   </si>
   <si>
     <t>To complete a gadget you must have one material of each type on the gadget.</t>
+  </si>
+  <si>
+    <t>Revivify a part from a finished gadget to convert it into a minion.</t>
+  </si>
+  <si>
+    <t>You may treat any card as metal.</t>
+  </si>
+  <si>
+    <t>Draw cards equal to the number of Mechanic minions you have.</t>
   </si>
 </sst>
 </file>
@@ -1517,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62FD146-FBB3-45C6-AF0D-94CB477F971D}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:M25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,10 +1543,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1599,7 +1599,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -1643,16 +1643,16 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1664,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O3">
         <v>2</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -1684,7 +1684,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F4" t="s">
         <v>41</v>
@@ -1708,7 +1708,7 @@
         <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O4">
         <v>4</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -1728,7 +1728,7 @@
         <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F5" t="s">
         <v>54</v>
@@ -1757,13 +1757,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -1787,13 +1787,13 @@
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N6" t="b">
         <v>1</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
@@ -1816,7 +1816,7 @@
         <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1825,19 +1825,19 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="J7">
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L7">
         <v>2</v>
       </c>
       <c r="M7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N7" t="b">
         <v>1</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -1860,16 +1860,16 @@
         <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -1884,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -1904,10 +1904,10 @@
         <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -1916,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -1939,19 +1939,19 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -1972,7 +1972,7 @@
         <v>24</v>
       </c>
       <c r="M10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N10" t="b">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
@@ -1995,7 +1995,7 @@
         <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F11" t="s">
         <v>26</v>
@@ -2004,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
@@ -2068,40 +2068,40 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s">
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
         <v>26</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>20</v>
-      </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s">
         <v>61</v>
@@ -2130,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B15" t="s">
         <v>61</v>
@@ -2162,42 +2162,42 @@
         <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="L15">
         <v>2</v>
       </c>
       <c r="M15" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s">
         <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
         <v>52</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N16" t="b">
         <v>1</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
         <v>75</v>
@@ -2241,10 +2241,10 @@
         <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F17" t="s">
         <v>79</v>
@@ -2273,13 +2273,13 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s">
         <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
         <v>57</v>
@@ -2294,7 +2294,7 @@
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>205</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -2314,19 +2314,19 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>82</v>
@@ -2350,7 +2350,7 @@
         <v>24</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1">
@@ -2359,7 +2359,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>14</v>
@@ -2368,10 +2368,10 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F20" t="s">
         <v>64</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>32</v>
@@ -2412,10 +2412,10 @@
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
@@ -2424,13 +2424,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J21">
         <v>3</v>
       </c>
       <c r="K21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>48</v>
@@ -2456,7 +2456,7 @@
         <v>63</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F22" t="s">
         <v>27</v>
@@ -2488,45 +2488,48 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
         <v>20</v>
       </c>
-      <c r="G23">
+      <c r="L23">
         <v>0</v>
       </c>
-      <c r="H23" t="s">
-        <v>105</v>
-      </c>
-      <c r="J23">
+      <c r="M23" t="s">
+        <v>102</v>
+      </c>
+      <c r="O23">
         <v>3</v>
-      </c>
-      <c r="K23" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M23" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>61</v>
@@ -2541,13 +2544,13 @@
         <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I24" t="b">
         <v>1</v>
@@ -2562,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O24">
         <v>3</v>
@@ -2570,19 +2573,19 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
         <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
@@ -2603,19 +2606,20 @@
         <v>2</v>
       </c>
       <c r="M25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O25">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K6:O6 F3:O5 F16:N16 F7:O15 F23:N23 F24:O25 F17:O22">
+  <conditionalFormatting sqref="K6:O6 F3:O5 F16:N16 F7:O15 F17:O25">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="token">
       <formula>NOT(ISERROR(SEARCH("token",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2623,7 +2627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -2642,184 +2646,184 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C18" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B25" s="2"/>
     </row>
